--- a/document/sample_data/DB샘플데이터.xlsx
+++ b/document/sample_data/DB샘플데이터.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" tabRatio="698" activeTab="11"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" tabRatio="698" firstSheet="7" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="지역분류" sheetId="7" r:id="rId1"/>
@@ -25,13 +25,14 @@
     <sheet name="위시리스트" sheetId="19" r:id="rId11"/>
     <sheet name="카페" sheetId="20" r:id="rId12"/>
     <sheet name="이미지" sheetId="21" r:id="rId13"/>
-    <sheet name="메뉴" sheetId="24" r:id="rId14"/>
+    <sheet name="이미지2" sheetId="25" r:id="rId14"/>
+    <sheet name="메뉴" sheetId="24" r:id="rId15"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="7" hidden="1">'게시판 분류'!$A$1:$B$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">관리자권한!$A$1:$B$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="6" hidden="1">관리자현황!$A$1:$E$1</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">메뉴!$A$1:$G$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">메뉴!$A$1:$G$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">메뉴분류!$A$1:$B$1</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="10" hidden="1">위시리스트!$A$1:$C$300</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="12" hidden="1">이미지!$A$1:$D$1</definedName>
@@ -53,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2598" uniqueCount="2040">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2888" uniqueCount="2156">
   <si>
     <t>주소</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -7028,6 +7029,358 @@
   <si>
     <t>블랙슈가버블티</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>pocket-1.jpg</t>
+  </si>
+  <si>
+    <t>thebridge-1.jpg</t>
+  </si>
+  <si>
+    <t>wooz-1.jpg</t>
+  </si>
+  <si>
+    <t>gobason-1.jpg</t>
+  </si>
+  <si>
+    <t>chch-1.jpg</t>
+  </si>
+  <si>
+    <t>lov-1.jpg</t>
+  </si>
+  <si>
+    <t>chawoorim-1.jpg</t>
+  </si>
+  <si>
+    <t>tumtree-1.jpg</t>
+  </si>
+  <si>
+    <t>dwave-1.jpg</t>
+  </si>
+  <si>
+    <t>stamp-1.jpg</t>
+  </si>
+  <si>
+    <t>gam-1.jpg</t>
+  </si>
+  <si>
+    <t>miru-1.jpg</t>
+  </si>
+  <si>
+    <t>blind-1.jpg</t>
+  </si>
+  <si>
+    <t>nok-1.jpg</t>
+  </si>
+  <si>
+    <t>mery-1.jpg</t>
+  </si>
+  <si>
+    <t>nodoubt-1.jpg</t>
+  </si>
+  <si>
+    <t>gogae-1.jpg</t>
+  </si>
+  <si>
+    <t>bebe-1.jpg</t>
+  </si>
+  <si>
+    <t>coffeeu-1.jpg</t>
+  </si>
+  <si>
+    <t>red-1.jpg</t>
+  </si>
+  <si>
+    <t>add1446-1.jpg</t>
+  </si>
+  <si>
+    <t>23g-1.jpg</t>
+  </si>
+  <si>
+    <t>today-1.jpg</t>
+  </si>
+  <si>
+    <t>sept-1.jpg</t>
+  </si>
+  <si>
+    <t>uoob-1.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>thanks-1.jpg</t>
+  </si>
+  <si>
+    <t>sigi-1.jpg</t>
+  </si>
+  <si>
+    <t>como-1.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>discovery-1.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>allglad-1.jpg</t>
+  </si>
+  <si>
+    <t>incomon-1.jpg</t>
+  </si>
+  <si>
+    <t>raw-1.jpg</t>
+  </si>
+  <si>
+    <t>sigong-1.jpg</t>
+  </si>
+  <si>
+    <t>macarong-1.jpg</t>
+  </si>
+  <si>
+    <t>baek-1.jpg</t>
+  </si>
+  <si>
+    <t>trouve-1.jpg</t>
+  </si>
+  <si>
+    <t>oaja-1.jpg</t>
+  </si>
+  <si>
+    <t>plie-1.jpg</t>
+  </si>
+  <si>
+    <t>todac-1.jpg</t>
+  </si>
+  <si>
+    <t>yirang-1.jpg</t>
+  </si>
+  <si>
+    <t>abiento-1.jpg</t>
+  </si>
+  <si>
+    <t>bwoom-1.jpg</t>
+  </si>
+  <si>
+    <t>camomile-1.jpg</t>
+  </si>
+  <si>
+    <t>kooing-1.jpg</t>
+  </si>
+  <si>
+    <t>panda-1.jpg</t>
+  </si>
+  <si>
+    <t>show-1.jpg</t>
+  </si>
+  <si>
+    <t>brown-1.jpg</t>
+  </si>
+  <si>
+    <t>daily-1.jpg</t>
+  </si>
+  <si>
+    <t>oasis-1.jpg</t>
+  </si>
+  <si>
+    <t>prama-1.jpg</t>
+  </si>
+  <si>
+    <t>popins-1.jpg</t>
+  </si>
+  <si>
+    <t>kioki-1.jpg</t>
+  </si>
+  <si>
+    <t>ofmore-1.jpg</t>
+  </si>
+  <si>
+    <t>momo-1.jpg</t>
+  </si>
+  <si>
+    <t>b1919-1.jpg</t>
+  </si>
+  <si>
+    <t>jam-1.jpg</t>
+  </si>
+  <si>
+    <t>chani-1.jpg</t>
+  </si>
+  <si>
+    <t>mocco-1.jpg</t>
+  </si>
+  <si>
+    <t>rooli-1.jpg</t>
+  </si>
+  <si>
+    <t>dansk-1.jpg</t>
+  </si>
+  <si>
+    <t>bo-1.jpg</t>
+  </si>
+  <si>
+    <t>yiya-1.jpg</t>
+  </si>
+  <si>
+    <t>yilin-1.jpg</t>
+  </si>
+  <si>
+    <t>bas-1.jpg</t>
+  </si>
+  <si>
+    <t>inmun-1.jpg</t>
+  </si>
+  <si>
+    <t>anook-1.jpg</t>
+  </si>
+  <si>
+    <t>inspiration-1.jpg</t>
+  </si>
+  <si>
+    <t>vill-1.jpg</t>
+  </si>
+  <si>
+    <t>oxley-1.jpg</t>
+  </si>
+  <si>
+    <t>woopchunri-1.jpg</t>
+  </si>
+  <si>
+    <t>TMR-1.jpg</t>
+  </si>
+  <si>
+    <t>bakgumdang-1.jpg</t>
+  </si>
+  <si>
+    <t>fence-1.jpg</t>
+  </si>
+  <si>
+    <t>apartment-1.jpg</t>
+  </si>
+  <si>
+    <t>kichin-1.jpg</t>
+  </si>
+  <si>
+    <t>donot-1.jpg</t>
+  </si>
+  <si>
+    <t>coffeehouse-1.jpg</t>
+  </si>
+  <si>
+    <t>eum-1.jpg</t>
+  </si>
+  <si>
+    <t>biseul-1.jpg</t>
+  </si>
+  <si>
+    <t>little-1.jpg</t>
+  </si>
+  <si>
+    <t>owl-1.jpg</t>
+  </si>
+  <si>
+    <t>opongd-1.jpg</t>
+  </si>
+  <si>
+    <t>hill-1.jpg</t>
+  </si>
+  <si>
+    <t>carmel-1.jpg</t>
+  </si>
+  <si>
+    <t>gable-1.jpg</t>
+  </si>
+  <si>
+    <t>surely-1.jpg</t>
+  </si>
+  <si>
+    <t>epanoui-1.jpg</t>
+  </si>
+  <si>
+    <t>ryu-1.jpg</t>
+  </si>
+  <si>
+    <t>coffeecal-1.jpg</t>
+  </si>
+  <si>
+    <t>stay-1.jpg</t>
+  </si>
+  <si>
+    <t>coffeesaram-1.jpg</t>
+  </si>
+  <si>
+    <t>aplane-1.jpg</t>
+  </si>
+  <si>
+    <t>brick62-1.jpg</t>
+  </si>
+  <si>
+    <t>moga-1.jpg</t>
+  </si>
+  <si>
+    <t>bbabba-1.jpg</t>
+  </si>
+  <si>
+    <t>lumier-1.jpg</t>
+  </si>
+  <si>
+    <t>nokum-1.jpg</t>
+  </si>
+  <si>
+    <t>bell-1.jpg</t>
+  </si>
+  <si>
+    <t>dorora-1.jpg</t>
+  </si>
+  <si>
+    <t>waft-1.jpg</t>
+  </si>
+  <si>
+    <t>koi-1.png</t>
+  </si>
+  <si>
+    <t>mix-1.jpg</t>
+  </si>
+  <si>
+    <t>jari-1.jpg</t>
+  </si>
+  <si>
+    <t>moeun-1.jpg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>rawdongin-1.jpg</t>
+  </si>
+  <si>
+    <t>mumyoung-1.jpg</t>
+  </si>
+  <si>
+    <t>titf-1.jpg</t>
+  </si>
+  <si>
+    <t>stone-1.jpg</t>
+  </si>
+  <si>
+    <t>heima-1.jpg</t>
+  </si>
+  <si>
+    <t>secret-1.jpg</t>
+  </si>
+  <si>
+    <t>treefarm-1.jpg</t>
+  </si>
+  <si>
+    <t>dohwazi-1.jpg</t>
+  </si>
+  <si>
+    <t>hundred-1.jpg</t>
+  </si>
+  <si>
+    <t>dumidi-1.jpg</t>
+  </si>
+  <si>
+    <t>seven-1.jpg</t>
+  </si>
+  <si>
+    <t>bake-1.jpg</t>
   </si>
 </sst>
 </file>
@@ -7164,7 +7517,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -7223,12 +7576,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -17734,19 +18081,19 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="15.375" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.25" style="25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.375" style="25" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.375" style="23" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.25" style="23" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.375" style="23" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" s="5" customFormat="1" ht="33.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="21" t="s">
         <v>573</v>
       </c>
-      <c r="B1" s="24" t="s">
+      <c r="B1" s="22" t="s">
         <v>574</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="22" t="s">
         <v>575</v>
       </c>
     </row>
@@ -21049,9 +21396,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH130"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AI1" sqref="AI1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B78" sqref="B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -21089,16 +21436,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:34" s="16" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="24" t="s">
         <v>574</v>
       </c>
       <c r="B1" s="16" t="s">
         <v>576</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="24" t="s">
         <v>577</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="24" t="s">
         <v>578</v>
       </c>
       <c r="E1" s="16" t="s">
@@ -21122,49 +21469,49 @@
       <c r="K1" s="16" t="s">
         <v>582</v>
       </c>
-      <c r="L1" s="26" t="s">
+      <c r="L1" s="24" t="s">
         <v>583</v>
       </c>
-      <c r="M1" s="26" t="s">
+      <c r="M1" s="24" t="s">
         <v>584</v>
       </c>
-      <c r="N1" s="26" t="s">
+      <c r="N1" s="24" t="s">
         <v>585</v>
       </c>
-      <c r="O1" s="26" t="s">
+      <c r="O1" s="24" t="s">
         <v>586</v>
       </c>
-      <c r="P1" s="26" t="s">
+      <c r="P1" s="24" t="s">
         <v>587</v>
       </c>
-      <c r="Q1" s="26" t="s">
+      <c r="Q1" s="24" t="s">
         <v>588</v>
       </c>
-      <c r="R1" s="26" t="s">
+      <c r="R1" s="24" t="s">
         <v>589</v>
       </c>
-      <c r="S1" s="26" t="s">
+      <c r="S1" s="24" t="s">
         <v>590</v>
       </c>
-      <c r="T1" s="26" t="s">
+      <c r="T1" s="24" t="s">
         <v>591</v>
       </c>
-      <c r="U1" s="26" t="s">
+      <c r="U1" s="24" t="s">
         <v>592</v>
       </c>
-      <c r="V1" s="26" t="s">
+      <c r="V1" s="24" t="s">
         <v>593</v>
       </c>
-      <c r="W1" s="26" t="s">
+      <c r="W1" s="24" t="s">
         <v>594</v>
       </c>
-      <c r="X1" s="26" t="s">
+      <c r="X1" s="24" t="s">
         <v>595</v>
       </c>
-      <c r="Y1" s="26" t="s">
+      <c r="Y1" s="24" t="s">
         <v>596</v>
       </c>
-      <c r="Z1" s="26" t="s">
+      <c r="Z1" s="24" t="s">
         <v>597</v>
       </c>
       <c r="AA1" s="16" t="s">
@@ -21173,7 +21520,7 @@
       <c r="AB1" s="16" t="s">
         <v>599</v>
       </c>
-      <c r="AC1" s="26" t="s">
+      <c r="AC1" s="24" t="s">
         <v>600</v>
       </c>
       <c r="AD1" s="16" t="s">
@@ -21182,13 +21529,13 @@
       <c r="AE1" s="17" t="s">
         <v>602</v>
       </c>
-      <c r="AF1" s="26" t="s">
+      <c r="AF1" s="24" t="s">
         <v>603</v>
       </c>
-      <c r="AG1" s="26" t="s">
+      <c r="AG1" s="24" t="s">
         <v>604</v>
       </c>
-      <c r="AH1" s="26" t="s">
+      <c r="AH1" s="24" t="s">
         <v>605</v>
       </c>
     </row>
@@ -33344,18 +33691,18 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D462"/>
+  <dimension ref="A1:D179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B11" sqref="B11"/>
+      <pane ySplit="1" topLeftCell="A144" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2:C175"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="15.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.375" style="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -33366,7 +33713,7 @@
       <c r="B1" s="4" t="s">
         <v>1924</v>
       </c>
-      <c r="C1" s="20" t="s">
+      <c r="C1" s="22" t="s">
         <v>1864</v>
       </c>
       <c r="D1" s="4" t="s">
@@ -33380,7 +33727,7 @@
       <c r="B2" s="1" t="s">
         <v>1871</v>
       </c>
-      <c r="C2" s="11">
+      <c r="C2" s="2">
         <v>1</v>
       </c>
       <c r="D2" s="1"/>
@@ -33392,7 +33739,7 @@
       <c r="B3" s="1" t="s">
         <v>1872</v>
       </c>
-      <c r="C3" s="11">
+      <c r="C3" s="2">
         <v>1</v>
       </c>
       <c r="D3" s="1"/>
@@ -33404,7 +33751,7 @@
       <c r="B4" s="1" t="s">
         <v>1873</v>
       </c>
-      <c r="C4" s="11">
+      <c r="C4" s="2">
         <v>1</v>
       </c>
       <c r="D4" s="1"/>
@@ -33416,7 +33763,7 @@
       <c r="B5" s="1" t="s">
         <v>1874</v>
       </c>
-      <c r="C5" s="11">
+      <c r="C5" s="2">
         <v>1</v>
       </c>
     </row>
@@ -33427,7 +33774,7 @@
       <c r="B6" s="1" t="s">
         <v>1875</v>
       </c>
-      <c r="C6" s="11">
+      <c r="C6" s="2">
         <v>1</v>
       </c>
     </row>
@@ -33438,7 +33785,7 @@
       <c r="B7" s="11" t="s">
         <v>1867</v>
       </c>
-      <c r="C7" s="11">
+      <c r="C7" s="2">
         <v>2</v>
       </c>
     </row>
@@ -33449,7 +33796,7 @@
       <c r="B8" s="11" t="s">
         <v>1866</v>
       </c>
-      <c r="C8" s="11">
+      <c r="C8" s="2">
         <v>2</v>
       </c>
     </row>
@@ -33460,7 +33807,7 @@
       <c r="B9" s="11" t="s">
         <v>1868</v>
       </c>
-      <c r="C9" s="11">
+      <c r="C9" s="2">
         <v>2</v>
       </c>
     </row>
@@ -33471,7 +33818,7 @@
       <c r="B10" s="11" t="s">
         <v>1869</v>
       </c>
-      <c r="C10" s="11">
+      <c r="C10" s="2">
         <v>2</v>
       </c>
     </row>
@@ -33482,7 +33829,7 @@
       <c r="B11" s="11" t="s">
         <v>1870</v>
       </c>
-      <c r="C11" s="11">
+      <c r="C11" s="2">
         <v>2</v>
       </c>
     </row>
@@ -33493,7 +33840,7 @@
       <c r="B12" s="11" t="s">
         <v>1876</v>
       </c>
-      <c r="C12" s="11">
+      <c r="C12" s="2">
         <v>3</v>
       </c>
     </row>
@@ -33504,7 +33851,7 @@
       <c r="B13" s="11" t="s">
         <v>1877</v>
       </c>
-      <c r="C13" s="11">
+      <c r="C13" s="2">
         <v>3</v>
       </c>
     </row>
@@ -33515,7 +33862,7 @@
       <c r="B14" s="11" t="s">
         <v>1878</v>
       </c>
-      <c r="C14" s="11">
+      <c r="C14" s="2">
         <v>3</v>
       </c>
     </row>
@@ -33526,7 +33873,7 @@
       <c r="B15" s="11" t="s">
         <v>1879</v>
       </c>
-      <c r="C15" s="11">
+      <c r="C15" s="2">
         <v>3</v>
       </c>
     </row>
@@ -33537,7 +33884,7 @@
       <c r="B16" s="11" t="s">
         <v>1880</v>
       </c>
-      <c r="C16" s="11">
+      <c r="C16" s="2">
         <v>3</v>
       </c>
     </row>
@@ -33548,7 +33895,7 @@
       <c r="B17" s="11" t="s">
         <v>1881</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="2">
         <v>4</v>
       </c>
     </row>
@@ -33559,7 +33906,7 @@
       <c r="B18" s="11" t="s">
         <v>1882</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="2">
         <v>4</v>
       </c>
     </row>
@@ -33570,7 +33917,7 @@
       <c r="B19" s="11" t="s">
         <v>1883</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="2">
         <v>4</v>
       </c>
     </row>
@@ -33581,7 +33928,7 @@
       <c r="B20" s="11" t="s">
         <v>1884</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="2">
         <v>4</v>
       </c>
     </row>
@@ -33592,7 +33939,7 @@
       <c r="B21" s="11" t="s">
         <v>1885</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="2">
         <v>4</v>
       </c>
     </row>
@@ -33603,7 +33950,7 @@
       <c r="B22" s="10" t="s">
         <v>1886</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="2">
         <v>5</v>
       </c>
       <c r="D22" s="1"/>
@@ -33615,7 +33962,7 @@
       <c r="B23" s="10" t="s">
         <v>1887</v>
       </c>
-      <c r="C23" s="11">
+      <c r="C23" s="2">
         <v>5</v>
       </c>
       <c r="D23" s="1"/>
@@ -33627,7 +33974,7 @@
       <c r="B24" s="10" t="s">
         <v>1888</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C24" s="2">
         <v>5</v>
       </c>
       <c r="D24" s="1"/>
@@ -33639,7 +33986,7 @@
       <c r="B25" s="10" t="s">
         <v>1889</v>
       </c>
-      <c r="C25" s="11">
+      <c r="C25" s="2">
         <v>5</v>
       </c>
       <c r="D25" s="1"/>
@@ -33651,7 +33998,7 @@
       <c r="B26" s="10" t="s">
         <v>1890</v>
       </c>
-      <c r="C26" s="11">
+      <c r="C26" s="2">
         <v>5</v>
       </c>
       <c r="D26" s="1"/>
@@ -33663,7 +34010,7 @@
       <c r="B27" s="10" t="s">
         <v>1891</v>
       </c>
-      <c r="C27" s="11">
+      <c r="C27" s="2">
         <v>6</v>
       </c>
       <c r="D27" s="1"/>
@@ -33675,7 +34022,7 @@
       <c r="B28" s="10" t="s">
         <v>1892</v>
       </c>
-      <c r="C28" s="11">
+      <c r="C28" s="2">
         <v>6</v>
       </c>
       <c r="D28" s="1"/>
@@ -33687,7 +34034,7 @@
       <c r="B29" s="10" t="s">
         <v>1893</v>
       </c>
-      <c r="C29" s="11">
+      <c r="C29" s="2">
         <v>6</v>
       </c>
       <c r="D29" s="1"/>
@@ -33699,7 +34046,7 @@
       <c r="B30" s="10" t="s">
         <v>1894</v>
       </c>
-      <c r="C30" s="11">
+      <c r="C30" s="2">
         <v>6</v>
       </c>
       <c r="D30" s="1"/>
@@ -33711,7 +34058,7 @@
       <c r="B31" s="10" t="s">
         <v>1895</v>
       </c>
-      <c r="C31" s="11">
+      <c r="C31" s="2">
         <v>6</v>
       </c>
     </row>
@@ -33722,7 +34069,7 @@
       <c r="B32" s="10" t="s">
         <v>1896</v>
       </c>
-      <c r="C32" s="11">
+      <c r="C32" s="2">
         <v>7</v>
       </c>
     </row>
@@ -33733,7 +34080,7 @@
       <c r="B33" s="10" t="s">
         <v>1897</v>
       </c>
-      <c r="C33" s="11">
+      <c r="C33" s="2">
         <v>7</v>
       </c>
     </row>
@@ -33744,7 +34091,7 @@
       <c r="B34" s="10" t="s">
         <v>1898</v>
       </c>
-      <c r="C34" s="11">
+      <c r="C34" s="2">
         <v>7</v>
       </c>
     </row>
@@ -33755,7 +34102,7 @@
       <c r="B35" s="10" t="s">
         <v>1899</v>
       </c>
-      <c r="C35" s="11">
+      <c r="C35" s="2">
         <v>7</v>
       </c>
     </row>
@@ -33766,7 +34113,7 @@
       <c r="B36" s="10" t="s">
         <v>1900</v>
       </c>
-      <c r="C36" s="11">
+      <c r="C36" s="2">
         <v>7</v>
       </c>
     </row>
@@ -33777,7 +34124,7 @@
       <c r="B37" s="1" t="s">
         <v>1901</v>
       </c>
-      <c r="C37" s="11">
+      <c r="C37" s="2">
         <v>8</v>
       </c>
     </row>
@@ -33788,7 +34135,7 @@
       <c r="B38" s="1" t="s">
         <v>1902</v>
       </c>
-      <c r="C38" s="11">
+      <c r="C38" s="2">
         <v>8</v>
       </c>
     </row>
@@ -33799,7 +34146,7 @@
       <c r="B39" s="1" t="s">
         <v>1903</v>
       </c>
-      <c r="C39" s="11">
+      <c r="C39" s="2">
         <v>8</v>
       </c>
     </row>
@@ -33810,7 +34157,7 @@
       <c r="B40" s="1" t="s">
         <v>1904</v>
       </c>
-      <c r="C40" s="11">
+      <c r="C40" s="2">
         <v>8</v>
       </c>
     </row>
@@ -33821,7 +34168,7 @@
       <c r="B41" s="1" t="s">
         <v>1905</v>
       </c>
-      <c r="C41" s="11">
+      <c r="C41" s="2">
         <v>8</v>
       </c>
     </row>
@@ -33832,7 +34179,7 @@
       <c r="B42" s="1" t="s">
         <v>1906</v>
       </c>
-      <c r="C42" s="11">
+      <c r="C42" s="2">
         <v>9</v>
       </c>
     </row>
@@ -33843,7 +34190,7 @@
       <c r="B43" s="1" t="s">
         <v>1907</v>
       </c>
-      <c r="C43" s="11">
+      <c r="C43" s="2">
         <v>9</v>
       </c>
     </row>
@@ -33854,7 +34201,7 @@
       <c r="B44" s="1" t="s">
         <v>1908</v>
       </c>
-      <c r="C44" s="11">
+      <c r="C44" s="2">
         <v>9</v>
       </c>
     </row>
@@ -33865,7 +34212,7 @@
       <c r="B45" s="1" t="s">
         <v>1909</v>
       </c>
-      <c r="C45" s="11">
+      <c r="C45" s="2">
         <v>9</v>
       </c>
     </row>
@@ -33876,7 +34223,7 @@
       <c r="B46" s="1" t="s">
         <v>1910</v>
       </c>
-      <c r="C46" s="11">
+      <c r="C46" s="2">
         <v>9</v>
       </c>
     </row>
@@ -33887,7 +34234,7 @@
       <c r="B47" s="1" t="s">
         <v>1911</v>
       </c>
-      <c r="C47" s="11">
+      <c r="C47" s="2">
         <v>10</v>
       </c>
     </row>
@@ -33898,7 +34245,7 @@
       <c r="B48" s="1" t="s">
         <v>1912</v>
       </c>
-      <c r="C48" s="11">
+      <c r="C48" s="2">
         <v>10</v>
       </c>
     </row>
@@ -33909,7 +34256,7 @@
       <c r="B49" s="1" t="s">
         <v>1913</v>
       </c>
-      <c r="C49" s="11">
+      <c r="C49" s="2">
         <v>10</v>
       </c>
     </row>
@@ -33920,7 +34267,7 @@
       <c r="B50" s="1" t="s">
         <v>1914</v>
       </c>
-      <c r="C50" s="11">
+      <c r="C50" s="2">
         <v>10</v>
       </c>
     </row>
@@ -33931,7 +34278,7 @@
       <c r="B51" s="1" t="s">
         <v>1915</v>
       </c>
-      <c r="C51" s="11">
+      <c r="C51" s="2">
         <v>10</v>
       </c>
     </row>
@@ -33942,7 +34289,7 @@
       <c r="B52" s="1" t="s">
         <v>1916</v>
       </c>
-      <c r="C52" s="11">
+      <c r="C52" s="2">
         <v>11</v>
       </c>
     </row>
@@ -33953,7 +34300,7 @@
       <c r="B53" s="1" t="s">
         <v>1917</v>
       </c>
-      <c r="C53" s="11">
+      <c r="C53" s="2">
         <v>11</v>
       </c>
     </row>
@@ -33964,7 +34311,7 @@
       <c r="B54" s="1" t="s">
         <v>1918</v>
       </c>
-      <c r="C54" s="11">
+      <c r="C54" s="2">
         <v>11</v>
       </c>
     </row>
@@ -33975,7 +34322,7 @@
       <c r="B55" s="1" t="s">
         <v>1919</v>
       </c>
-      <c r="C55" s="11">
+      <c r="C55" s="2">
         <v>12</v>
       </c>
     </row>
@@ -33986,7 +34333,7 @@
       <c r="B56" s="1" t="s">
         <v>1920</v>
       </c>
-      <c r="C56" s="11">
+      <c r="C56" s="2">
         <v>12</v>
       </c>
     </row>
@@ -33997,7 +34344,7 @@
       <c r="B57" s="1" t="s">
         <v>1921</v>
       </c>
-      <c r="C57" s="11">
+      <c r="C57" s="2">
         <v>12</v>
       </c>
     </row>
@@ -34008,7 +34355,7 @@
       <c r="B58" s="1" t="s">
         <v>1922</v>
       </c>
-      <c r="C58" s="11">
+      <c r="C58" s="2">
         <v>12</v>
       </c>
     </row>
@@ -34019,361 +34366,1287 @@
       <c r="B59" s="1" t="s">
         <v>1923</v>
       </c>
-      <c r="C59" s="11">
+      <c r="C59" s="2">
         <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A60" s="1"/>
+      <c r="A60" s="1">
+        <v>59</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>2040</v>
+      </c>
+      <c r="C60" s="2">
+        <v>13</v>
+      </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A61" s="1"/>
+      <c r="A61" s="1">
+        <v>60</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>2041</v>
+      </c>
+      <c r="C61" s="2">
+        <v>14</v>
+      </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A62" s="1"/>
+      <c r="A62" s="1">
+        <v>61</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>2042</v>
+      </c>
+      <c r="C62" s="2">
+        <v>15</v>
+      </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A63" s="1"/>
+      <c r="A63" s="1">
+        <v>62</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>2043</v>
+      </c>
+      <c r="C63" s="2">
+        <v>16</v>
+      </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A64" s="1"/>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65" s="1"/>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66" s="1"/>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A67" s="1"/>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A68" s="1"/>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A69" s="1"/>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A70" s="1"/>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A71" s="1"/>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A72" s="1"/>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A73" s="1"/>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A74" s="1"/>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A75" s="1"/>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A76" s="1"/>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A77" s="1"/>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A78" s="1"/>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A79" s="1"/>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A80" s="1"/>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A81" s="1"/>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A82" s="1"/>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A83" s="1"/>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A84" s="1"/>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A85" s="1"/>
-    </row>
-    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A86" s="1"/>
-    </row>
-    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A87" s="1"/>
-    </row>
-    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A88" s="1"/>
-    </row>
-    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A89" s="1"/>
-    </row>
-    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A90" s="1"/>
-    </row>
-    <row r="91" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A91" s="1"/>
-    </row>
-    <row r="92" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A92" s="1"/>
-    </row>
-    <row r="93" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A93" s="1"/>
-    </row>
-    <row r="94" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A94" s="1"/>
-    </row>
-    <row r="95" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A95" s="1"/>
-    </row>
-    <row r="96" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A96" s="1"/>
+      <c r="A64" s="1">
+        <v>63</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>2044</v>
+      </c>
+      <c r="C64" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>64</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>2045</v>
+      </c>
+      <c r="C65" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>65</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>2046</v>
+      </c>
+      <c r="C66" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>66</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>2047</v>
+      </c>
+      <c r="C67" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>67</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>2048</v>
+      </c>
+      <c r="C68" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>68</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>2049</v>
+      </c>
+      <c r="C69" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>69</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>2050</v>
+      </c>
+      <c r="C70" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>70</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>2051</v>
+      </c>
+      <c r="C71" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>71</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>2052</v>
+      </c>
+      <c r="C72" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>72</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>2053</v>
+      </c>
+      <c r="C73" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>73</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>2054</v>
+      </c>
+      <c r="C74" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>74</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>2055</v>
+      </c>
+      <c r="C75" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>75</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>2056</v>
+      </c>
+      <c r="C76" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <v>76</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>2057</v>
+      </c>
+      <c r="C77" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <v>77</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>2058</v>
+      </c>
+      <c r="C78" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
+        <v>78</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>2059</v>
+      </c>
+      <c r="C79" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <v>79</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>2060</v>
+      </c>
+      <c r="C80" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <v>80</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>2061</v>
+      </c>
+      <c r="C81" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <v>81</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>2062</v>
+      </c>
+      <c r="C82" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <v>82</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>2063</v>
+      </c>
+      <c r="C83" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <v>83</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>2064</v>
+      </c>
+      <c r="C84" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
+        <v>84</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>2065</v>
+      </c>
+      <c r="C85" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
+        <v>85</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>2066</v>
+      </c>
+      <c r="C86" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
+        <v>86</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>2067</v>
+      </c>
+      <c r="C87" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
+        <v>87</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>2068</v>
+      </c>
+      <c r="C88" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="1">
+        <v>88</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>2069</v>
+      </c>
+      <c r="C89" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
+        <v>89</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>2070</v>
+      </c>
+      <c r="C90" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
+        <v>90</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>2071</v>
+      </c>
+      <c r="C91" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
+        <v>91</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>2072</v>
+      </c>
+      <c r="C92" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
+        <v>92</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>2073</v>
+      </c>
+      <c r="C93" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
+        <v>93</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>2074</v>
+      </c>
+      <c r="C94" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
+        <v>94</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>2075</v>
+      </c>
+      <c r="C95" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
+        <v>95</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>2076</v>
+      </c>
+      <c r="C96" s="2">
+        <v>49</v>
+      </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A97" s="1"/>
+      <c r="A97" s="1">
+        <v>96</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>2077</v>
+      </c>
+      <c r="C97" s="2">
+        <v>50</v>
+      </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A98" s="1"/>
+      <c r="A98" s="1">
+        <v>97</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>2078</v>
+      </c>
+      <c r="C98" s="2">
+        <v>51</v>
+      </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A99" s="1"/>
-    </row>
-    <row r="100" spans="1:3" s="22" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A100" s="1"/>
-      <c r="B100" s="21"/>
-      <c r="C100" s="11"/>
+      <c r="A99" s="1">
+        <v>98</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>2079</v>
+      </c>
+      <c r="C99" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" s="20" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A100" s="1">
+        <v>99</v>
+      </c>
+      <c r="B100" s="13" t="s">
+        <v>2080</v>
+      </c>
+      <c r="C100" s="2">
+        <v>53</v>
+      </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A101" s="1"/>
+      <c r="A101" s="1">
+        <v>100</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>2081</v>
+      </c>
+      <c r="C101" s="2">
+        <v>54</v>
+      </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A102" s="1"/>
+      <c r="A102" s="1">
+        <v>101</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>2082</v>
+      </c>
+      <c r="C102" s="2">
+        <v>55</v>
+      </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A103" s="1"/>
+      <c r="A103" s="1">
+        <v>102</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>2083</v>
+      </c>
+      <c r="C103" s="2">
+        <v>56</v>
+      </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A104" s="1"/>
+      <c r="A104" s="1">
+        <v>103</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>2084</v>
+      </c>
+      <c r="C104" s="2">
+        <v>57</v>
+      </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A105" s="1"/>
+      <c r="A105" s="1">
+        <v>104</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>2085</v>
+      </c>
+      <c r="C105" s="2">
+        <v>58</v>
+      </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A106" s="1"/>
+      <c r="A106" s="1">
+        <v>105</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>2086</v>
+      </c>
+      <c r="C106" s="2">
+        <v>59</v>
+      </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A107" s="1"/>
+      <c r="A107" s="1">
+        <v>106</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>2087</v>
+      </c>
+      <c r="C107" s="2">
+        <v>60</v>
+      </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A108" s="1"/>
+      <c r="A108" s="1">
+        <v>107</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>2088</v>
+      </c>
+      <c r="C108" s="2">
+        <v>61</v>
+      </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A109" s="1"/>
+      <c r="A109" s="1">
+        <v>108</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>2089</v>
+      </c>
+      <c r="C109" s="2">
+        <v>62</v>
+      </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A110" s="1"/>
+      <c r="A110" s="1">
+        <v>109</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>2090</v>
+      </c>
+      <c r="C110" s="2">
+        <v>63</v>
+      </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A111" s="1"/>
+      <c r="A111" s="1">
+        <v>110</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>2091</v>
+      </c>
+      <c r="C111" s="2">
+        <v>64</v>
+      </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A112" s="1"/>
-    </row>
-    <row r="113" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A113" s="1"/>
-    </row>
-    <row r="114" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A114" s="1"/>
-    </row>
-    <row r="115" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A115" s="1"/>
-    </row>
-    <row r="116" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A116" s="1"/>
-    </row>
-    <row r="117" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A117" s="1"/>
-    </row>
-    <row r="118" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A118" s="1"/>
-    </row>
-    <row r="119" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A119" s="1"/>
-    </row>
-    <row r="120" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A120" s="1"/>
-    </row>
-    <row r="121" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A121" s="1"/>
-    </row>
-    <row r="122" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A122" s="1"/>
-    </row>
-    <row r="123" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A123" s="1"/>
-    </row>
-    <row r="124" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A124" s="1"/>
-    </row>
-    <row r="125" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A125" s="1"/>
-    </row>
-    <row r="126" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A126" s="1"/>
-    </row>
-    <row r="127" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A127" s="1"/>
-    </row>
-    <row r="128" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A128" s="1"/>
-    </row>
-    <row r="129" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A129" s="1"/>
-    </row>
-    <row r="130" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A130" s="1"/>
-    </row>
-    <row r="131" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A131" s="1"/>
-    </row>
-    <row r="132" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A132" s="1"/>
-    </row>
-    <row r="133" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A133" s="1"/>
-    </row>
-    <row r="134" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A134" s="1"/>
-    </row>
-    <row r="135" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A135" s="1"/>
-    </row>
-    <row r="136" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A136" s="1"/>
-    </row>
-    <row r="137" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A137" s="1"/>
-    </row>
-    <row r="138" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A138" s="1"/>
-    </row>
-    <row r="139" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A139" s="1"/>
-    </row>
-    <row r="140" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A140" s="1"/>
-    </row>
-    <row r="141" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A141" s="1"/>
-    </row>
-    <row r="142" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A142" s="1"/>
-    </row>
-    <row r="143" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A143" s="1"/>
-    </row>
-    <row r="144" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A144" s="1"/>
-    </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A145" s="1"/>
-    </row>
-    <row r="146" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A146" s="1"/>
-    </row>
-    <row r="147" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A147" s="1"/>
-    </row>
-    <row r="148" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A148" s="1"/>
-    </row>
-    <row r="149" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A149" s="1"/>
-    </row>
-    <row r="150" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A150" s="1"/>
-    </row>
-    <row r="151" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A151" s="1"/>
-    </row>
-    <row r="152" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A152" s="1"/>
-    </row>
-    <row r="153" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A153" s="1"/>
-    </row>
-    <row r="154" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A154" s="1"/>
-    </row>
-    <row r="155" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A155" s="1"/>
-    </row>
-    <row r="156" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A156" s="1"/>
-    </row>
-    <row r="157" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A157" s="1"/>
-    </row>
-    <row r="158" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A158" s="1"/>
-    </row>
-    <row r="159" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A159" s="1"/>
-    </row>
-    <row r="160" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A160" s="1"/>
-    </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A161" s="1"/>
-    </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A162" s="1"/>
-    </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A163" s="1"/>
-    </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A164" s="1"/>
-    </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A165" s="1"/>
-    </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A166" s="1"/>
-    </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A167" s="1"/>
-    </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A168" s="1"/>
-    </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A169" s="1"/>
-    </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A170" s="1"/>
-    </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A171" s="1"/>
-    </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A172" s="1"/>
-    </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A173" s="1"/>
-    </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A174" s="1"/>
-    </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A175" s="1"/>
-    </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A112" s="1">
+        <v>111</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>2092</v>
+      </c>
+      <c r="C112" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" s="1">
+        <v>112</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>2093</v>
+      </c>
+      <c r="C113" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" s="1">
+        <v>113</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>2094</v>
+      </c>
+      <c r="C114" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" s="1">
+        <v>114</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>2095</v>
+      </c>
+      <c r="C115" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" s="1">
+        <v>115</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>2096</v>
+      </c>
+      <c r="C116" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" s="1">
+        <v>116</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>2097</v>
+      </c>
+      <c r="C117" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" s="1">
+        <v>117</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>2098</v>
+      </c>
+      <c r="C118" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" s="1">
+        <v>118</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>2099</v>
+      </c>
+      <c r="C119" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" s="1">
+        <v>119</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>2100</v>
+      </c>
+      <c r="C120" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" s="1">
+        <v>120</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C121" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" s="1">
+        <v>121</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>2102</v>
+      </c>
+      <c r="C122" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" s="1">
+        <v>122</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>2103</v>
+      </c>
+      <c r="C123" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" s="1">
+        <v>123</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>2104</v>
+      </c>
+      <c r="C124" s="2">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" s="1">
+        <v>124</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>2105</v>
+      </c>
+      <c r="C125" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" s="1">
+        <v>125</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>2106</v>
+      </c>
+      <c r="C126" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>2107</v>
+      </c>
+      <c r="C127" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>2108</v>
+      </c>
+      <c r="C128" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>2109</v>
+      </c>
+      <c r="C129" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>2110</v>
+      </c>
+      <c r="C130" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>2111</v>
+      </c>
+      <c r="C131" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>2112</v>
+      </c>
+      <c r="C132" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>2113</v>
+      </c>
+      <c r="C133" s="2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>2114</v>
+      </c>
+      <c r="C134" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>2115</v>
+      </c>
+      <c r="C135" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>2116</v>
+      </c>
+      <c r="C136" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>2117</v>
+      </c>
+      <c r="C137" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>2118</v>
+      </c>
+      <c r="C138" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>2119</v>
+      </c>
+      <c r="C139" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>2120</v>
+      </c>
+      <c r="C140" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>2121</v>
+      </c>
+      <c r="C141" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>2122</v>
+      </c>
+      <c r="C142" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>2123</v>
+      </c>
+      <c r="C143" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>2124</v>
+      </c>
+      <c r="C144" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>2125</v>
+      </c>
+      <c r="C145" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>2126</v>
+      </c>
+      <c r="C146" s="2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>2127</v>
+      </c>
+      <c r="C147" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>2128</v>
+      </c>
+      <c r="C148" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>2129</v>
+      </c>
+      <c r="C149" s="2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>2130</v>
+      </c>
+      <c r="C150" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C151" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A152" s="1">
+        <v>151</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>2132</v>
+      </c>
+      <c r="C152" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>2133</v>
+      </c>
+      <c r="C153" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A154" s="1">
+        <v>153</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>2134</v>
+      </c>
+      <c r="C154" s="2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A155" s="1">
+        <v>154</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>2135</v>
+      </c>
+      <c r="C155" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A156" s="1">
+        <v>155</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>2136</v>
+      </c>
+      <c r="C156" s="2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A157" s="1">
+        <v>156</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>2137</v>
+      </c>
+      <c r="C157" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A158" s="1">
+        <v>157</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>2138</v>
+      </c>
+      <c r="C158" s="2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A159" s="1">
+        <v>158</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>2139</v>
+      </c>
+      <c r="C159" s="2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A160" s="1">
+        <v>159</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>2140</v>
+      </c>
+      <c r="C160" s="2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A161" s="1">
+        <v>160</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>2141</v>
+      </c>
+      <c r="C161" s="2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A162" s="1">
+        <v>161</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>2142</v>
+      </c>
+      <c r="C162" s="2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A163" s="1">
+        <v>162</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>2143</v>
+      </c>
+      <c r="C163" s="2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A164" s="1">
+        <v>163</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>2144</v>
+      </c>
+      <c r="C164" s="2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A165" s="1">
+        <v>164</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>2145</v>
+      </c>
+      <c r="C165" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A166" s="1">
+        <v>165</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>2146</v>
+      </c>
+      <c r="C166" s="2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A167" s="1">
+        <v>166</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>2147</v>
+      </c>
+      <c r="C167" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A168" s="1">
+        <v>167</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>2148</v>
+      </c>
+      <c r="C168" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A169" s="1">
+        <v>168</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>2149</v>
+      </c>
+      <c r="C169" s="2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A170" s="1">
+        <v>169</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>2150</v>
+      </c>
+      <c r="C170" s="2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A171" s="1">
+        <v>170</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>2151</v>
+      </c>
+      <c r="C171" s="2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A172" s="1">
+        <v>171</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>2152</v>
+      </c>
+      <c r="C172" s="2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A173" s="1">
+        <v>172</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C173" s="2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A174" s="1">
+        <v>173</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>2154</v>
+      </c>
+      <c r="C174" s="2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A175" s="1">
+        <v>174</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>2155</v>
+      </c>
+      <c r="C175" s="2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A176" s="1"/>
     </row>
     <row r="177" spans="1:1" x14ac:dyDescent="0.3">
@@ -34384,855 +35657,6 @@
     </row>
     <row r="179" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A179" s="1"/>
-    </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A180" s="1"/>
-    </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A181" s="1"/>
-    </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A182" s="1"/>
-    </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A183" s="1"/>
-    </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A184" s="1"/>
-    </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A185" s="1"/>
-    </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A186" s="1"/>
-    </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A187" s="1"/>
-    </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A188" s="1"/>
-    </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A189" s="1"/>
-    </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A190" s="1"/>
-    </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A191" s="1"/>
-    </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A192" s="1"/>
-    </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A193" s="1"/>
-    </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A194" s="1"/>
-    </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A195" s="1"/>
-    </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A196" s="1"/>
-    </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A197" s="1"/>
-    </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A198" s="1"/>
-    </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A199" s="1"/>
-    </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A200" s="1"/>
-    </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A201" s="1"/>
-    </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A202" s="1"/>
-    </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A203" s="1"/>
-    </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A204" s="1"/>
-    </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A205" s="1"/>
-    </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A206" s="1"/>
-    </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A207" s="1"/>
-    </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A208" s="1"/>
-    </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A209" s="1"/>
-    </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A210" s="1"/>
-    </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A211" s="1"/>
-    </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A212" s="1"/>
-    </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A213" s="1"/>
-    </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A214" s="1"/>
-    </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A215" s="1"/>
-    </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A216" s="1"/>
-    </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A217" s="1"/>
-    </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A218" s="1"/>
-    </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A219" s="1"/>
-    </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A220" s="1"/>
-    </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A221" s="1"/>
-    </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A222" s="1"/>
-    </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A223" s="1"/>
-    </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A224" s="1"/>
-    </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A225" s="1"/>
-    </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A226" s="1"/>
-    </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A227" s="1"/>
-    </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A228" s="1"/>
-    </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A229" s="1"/>
-    </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A230" s="1"/>
-    </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A231" s="1"/>
-    </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A232" s="1"/>
-    </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A233" s="1"/>
-    </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A234" s="1"/>
-    </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A235" s="1"/>
-    </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A236" s="1"/>
-    </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A237" s="1"/>
-    </row>
-    <row r="238" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A238" s="1"/>
-    </row>
-    <row r="239" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A239" s="1"/>
-    </row>
-    <row r="240" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A240" s="1"/>
-    </row>
-    <row r="241" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A241" s="1"/>
-    </row>
-    <row r="242" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A242" s="1"/>
-    </row>
-    <row r="243" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A243" s="1"/>
-    </row>
-    <row r="244" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A244" s="1"/>
-    </row>
-    <row r="245" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A245" s="1"/>
-    </row>
-    <row r="246" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A246" s="1"/>
-    </row>
-    <row r="247" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A247" s="1"/>
-    </row>
-    <row r="248" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A248" s="1"/>
-    </row>
-    <row r="249" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A249" s="1"/>
-    </row>
-    <row r="250" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A250" s="1"/>
-    </row>
-    <row r="251" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A251" s="1"/>
-    </row>
-    <row r="252" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A252" s="1"/>
-    </row>
-    <row r="253" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A253" s="1"/>
-    </row>
-    <row r="254" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A254" s="1"/>
-    </row>
-    <row r="255" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A255" s="1"/>
-    </row>
-    <row r="256" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A256" s="1"/>
-    </row>
-    <row r="257" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A257" s="1"/>
-    </row>
-    <row r="258" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A258" s="1"/>
-    </row>
-    <row r="259" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A259" s="1"/>
-    </row>
-    <row r="260" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A260" s="1"/>
-    </row>
-    <row r="261" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A261" s="1"/>
-    </row>
-    <row r="262" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A262" s="1"/>
-    </row>
-    <row r="263" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A263" s="1"/>
-    </row>
-    <row r="264" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A264" s="1"/>
-    </row>
-    <row r="265" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A265" s="1"/>
-    </row>
-    <row r="266" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A266" s="1"/>
-    </row>
-    <row r="267" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A267" s="1"/>
-    </row>
-    <row r="268" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A268" s="1"/>
-    </row>
-    <row r="269" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A269" s="1"/>
-    </row>
-    <row r="270" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A270" s="1"/>
-    </row>
-    <row r="271" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A271" s="1"/>
-    </row>
-    <row r="272" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A272" s="1"/>
-    </row>
-    <row r="273" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A273" s="1"/>
-    </row>
-    <row r="274" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A274" s="1"/>
-    </row>
-    <row r="275" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A275" s="1"/>
-    </row>
-    <row r="276" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A276" s="1"/>
-    </row>
-    <row r="277" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A277" s="1"/>
-    </row>
-    <row r="278" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A278" s="1"/>
-    </row>
-    <row r="279" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A279" s="1"/>
-    </row>
-    <row r="280" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A280" s="1"/>
-    </row>
-    <row r="281" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A281" s="1"/>
-    </row>
-    <row r="282" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A282" s="1"/>
-    </row>
-    <row r="283" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A283" s="1"/>
-    </row>
-    <row r="284" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A284" s="1"/>
-    </row>
-    <row r="285" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A285" s="1"/>
-    </row>
-    <row r="286" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A286" s="1"/>
-    </row>
-    <row r="287" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A287" s="1"/>
-    </row>
-    <row r="288" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A288" s="1"/>
-    </row>
-    <row r="289" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A289" s="1"/>
-    </row>
-    <row r="290" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A290" s="1"/>
-    </row>
-    <row r="291" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A291" s="1"/>
-    </row>
-    <row r="292" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A292" s="1"/>
-    </row>
-    <row r="293" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A293" s="1"/>
-    </row>
-    <row r="294" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A294" s="1"/>
-    </row>
-    <row r="295" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A295" s="1"/>
-    </row>
-    <row r="296" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A296" s="1"/>
-    </row>
-    <row r="297" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A297" s="1"/>
-    </row>
-    <row r="298" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A298" s="1"/>
-    </row>
-    <row r="299" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A299" s="1"/>
-    </row>
-    <row r="300" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A300" s="1"/>
-    </row>
-    <row r="301" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A301" s="1"/>
-    </row>
-    <row r="302" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A302" s="1"/>
-    </row>
-    <row r="303" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A303" s="1"/>
-    </row>
-    <row r="304" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A304" s="1"/>
-    </row>
-    <row r="305" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A305" s="1"/>
-    </row>
-    <row r="306" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A306" s="1"/>
-    </row>
-    <row r="307" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A307" s="1"/>
-    </row>
-    <row r="308" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A308" s="1"/>
-    </row>
-    <row r="309" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A309" s="1"/>
-    </row>
-    <row r="310" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A310" s="1"/>
-    </row>
-    <row r="311" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A311" s="1"/>
-    </row>
-    <row r="312" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A312" s="1"/>
-    </row>
-    <row r="313" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A313" s="1"/>
-    </row>
-    <row r="314" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A314" s="1"/>
-    </row>
-    <row r="315" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A315" s="1"/>
-    </row>
-    <row r="316" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A316" s="1"/>
-    </row>
-    <row r="317" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A317" s="1"/>
-    </row>
-    <row r="318" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A318" s="1"/>
-    </row>
-    <row r="319" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A319" s="1"/>
-    </row>
-    <row r="320" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A320" s="1"/>
-    </row>
-    <row r="321" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A321" s="1"/>
-    </row>
-    <row r="322" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A322" s="1"/>
-    </row>
-    <row r="323" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A323" s="1"/>
-    </row>
-    <row r="324" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A324" s="1"/>
-    </row>
-    <row r="325" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A325" s="1"/>
-    </row>
-    <row r="326" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A326" s="1"/>
-    </row>
-    <row r="327" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A327" s="1"/>
-    </row>
-    <row r="328" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A328" s="1"/>
-    </row>
-    <row r="329" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A329" s="1"/>
-    </row>
-    <row r="330" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A330" s="1"/>
-    </row>
-    <row r="331" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A331" s="1"/>
-    </row>
-    <row r="332" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A332" s="1"/>
-    </row>
-    <row r="333" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A333" s="1"/>
-    </row>
-    <row r="334" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A334" s="1"/>
-    </row>
-    <row r="335" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A335" s="1"/>
-    </row>
-    <row r="336" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A336" s="1"/>
-    </row>
-    <row r="337" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A337" s="1"/>
-    </row>
-    <row r="338" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A338" s="1"/>
-    </row>
-    <row r="339" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A339" s="1"/>
-    </row>
-    <row r="340" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A340" s="1"/>
-    </row>
-    <row r="341" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A341" s="1"/>
-    </row>
-    <row r="342" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A342" s="1"/>
-    </row>
-    <row r="343" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A343" s="1"/>
-    </row>
-    <row r="344" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A344" s="1"/>
-    </row>
-    <row r="345" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A345" s="1"/>
-    </row>
-    <row r="346" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A346" s="1"/>
-    </row>
-    <row r="347" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A347" s="1"/>
-    </row>
-    <row r="348" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A348" s="1"/>
-    </row>
-    <row r="349" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A349" s="1"/>
-    </row>
-    <row r="350" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A350" s="1"/>
-    </row>
-    <row r="351" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A351" s="1"/>
-    </row>
-    <row r="352" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A352" s="1"/>
-    </row>
-    <row r="353" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A353" s="1"/>
-    </row>
-    <row r="354" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A354" s="1"/>
-    </row>
-    <row r="355" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A355" s="1"/>
-    </row>
-    <row r="356" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A356" s="1"/>
-    </row>
-    <row r="357" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A357" s="1"/>
-    </row>
-    <row r="358" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A358" s="1"/>
-    </row>
-    <row r="359" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A359" s="1"/>
-    </row>
-    <row r="360" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A360" s="1"/>
-    </row>
-    <row r="361" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A361" s="1"/>
-    </row>
-    <row r="362" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A362" s="1"/>
-    </row>
-    <row r="363" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A363" s="1"/>
-    </row>
-    <row r="364" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A364" s="1"/>
-    </row>
-    <row r="365" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A365" s="1"/>
-    </row>
-    <row r="366" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A366" s="1"/>
-    </row>
-    <row r="367" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A367" s="1"/>
-    </row>
-    <row r="368" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A368" s="1"/>
-    </row>
-    <row r="369" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A369" s="1"/>
-    </row>
-    <row r="370" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A370" s="1"/>
-    </row>
-    <row r="371" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A371" s="1"/>
-    </row>
-    <row r="372" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A372" s="1"/>
-    </row>
-    <row r="373" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A373" s="1"/>
-    </row>
-    <row r="374" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A374" s="1"/>
-    </row>
-    <row r="375" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A375" s="1"/>
-    </row>
-    <row r="376" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A376" s="1"/>
-    </row>
-    <row r="377" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A377" s="1"/>
-    </row>
-    <row r="378" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A378" s="1"/>
-    </row>
-    <row r="379" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A379" s="1"/>
-    </row>
-    <row r="380" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A380" s="1"/>
-    </row>
-    <row r="381" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A381" s="1"/>
-    </row>
-    <row r="382" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A382" s="1"/>
-    </row>
-    <row r="383" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A383" s="1"/>
-    </row>
-    <row r="384" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A384" s="1"/>
-    </row>
-    <row r="385" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A385" s="1"/>
-    </row>
-    <row r="386" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A386" s="1"/>
-    </row>
-    <row r="387" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A387" s="1"/>
-    </row>
-    <row r="388" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A388" s="1"/>
-    </row>
-    <row r="389" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A389" s="1"/>
-    </row>
-    <row r="390" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A390" s="1"/>
-    </row>
-    <row r="391" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A391" s="1"/>
-    </row>
-    <row r="392" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A392" s="1"/>
-    </row>
-    <row r="393" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A393" s="1"/>
-    </row>
-    <row r="394" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A394" s="1"/>
-    </row>
-    <row r="395" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A395" s="1"/>
-    </row>
-    <row r="396" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A396" s="1"/>
-    </row>
-    <row r="397" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A397" s="1"/>
-    </row>
-    <row r="398" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A398" s="1"/>
-    </row>
-    <row r="399" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A399" s="1"/>
-    </row>
-    <row r="400" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A400" s="1"/>
-    </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A401" s="1"/>
-    </row>
-    <row r="402" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A402" s="1"/>
-    </row>
-    <row r="403" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A403" s="1"/>
-    </row>
-    <row r="404" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A404" s="1"/>
-    </row>
-    <row r="405" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A405" s="1"/>
-    </row>
-    <row r="406" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A406" s="1"/>
-    </row>
-    <row r="407" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A407" s="1"/>
-    </row>
-    <row r="408" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A408" s="1"/>
-    </row>
-    <row r="409" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A409" s="1"/>
-    </row>
-    <row r="410" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A410" s="1"/>
-    </row>
-    <row r="411" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A411" s="1"/>
-    </row>
-    <row r="412" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A412" s="1"/>
-    </row>
-    <row r="413" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A413" s="1"/>
-    </row>
-    <row r="414" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A414" s="1"/>
-    </row>
-    <row r="415" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A415" s="1"/>
-    </row>
-    <row r="416" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A416" s="1"/>
-    </row>
-    <row r="417" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A417" s="1"/>
-    </row>
-    <row r="418" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A418" s="1"/>
-    </row>
-    <row r="419" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A419" s="1"/>
-    </row>
-    <row r="420" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A420" s="1"/>
-    </row>
-    <row r="421" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A421" s="1"/>
-    </row>
-    <row r="422" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A422" s="1"/>
-    </row>
-    <row r="423" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A423" s="1"/>
-    </row>
-    <row r="424" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A424" s="1"/>
-    </row>
-    <row r="425" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A425" s="1"/>
-    </row>
-    <row r="426" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A426" s="1"/>
-    </row>
-    <row r="427" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A427" s="1"/>
-    </row>
-    <row r="428" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A428" s="1"/>
-    </row>
-    <row r="429" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A429" s="1"/>
-    </row>
-    <row r="430" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A430" s="1"/>
-    </row>
-    <row r="431" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A431" s="1"/>
-    </row>
-    <row r="432" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A432" s="1"/>
-    </row>
-    <row r="433" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A433" s="1"/>
-    </row>
-    <row r="434" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A434" s="1"/>
-    </row>
-    <row r="435" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A435" s="1"/>
-    </row>
-    <row r="436" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A436" s="1"/>
-    </row>
-    <row r="437" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A437" s="1"/>
-    </row>
-    <row r="438" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A438" s="1"/>
-    </row>
-    <row r="439" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A439" s="1"/>
-    </row>
-    <row r="440" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A440" s="1"/>
-    </row>
-    <row r="441" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A441" s="1"/>
-    </row>
-    <row r="442" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A442" s="1"/>
-    </row>
-    <row r="443" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A443" s="1"/>
-    </row>
-    <row r="444" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A444" s="1"/>
-    </row>
-    <row r="445" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A445" s="1"/>
-    </row>
-    <row r="446" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A446" s="1"/>
-    </row>
-    <row r="447" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A447" s="1"/>
-    </row>
-    <row r="448" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A448" s="1"/>
-    </row>
-    <row r="449" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A449" s="1"/>
-    </row>
-    <row r="450" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A450" s="1"/>
-    </row>
-    <row r="451" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A451" s="1"/>
-    </row>
-    <row r="452" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A452" s="1"/>
-    </row>
-    <row r="453" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A453" s="1"/>
-    </row>
-    <row r="454" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A454" s="1"/>
-    </row>
-    <row r="455" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A455" s="1"/>
-    </row>
-    <row r="456" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A456" s="1"/>
-    </row>
-    <row r="457" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A457" s="1"/>
-    </row>
-    <row r="458" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A458" s="1"/>
-    </row>
-    <row r="459" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A459" s="1"/>
-    </row>
-    <row r="460" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A460" s="1"/>
-    </row>
-    <row r="461" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A461" s="1"/>
-    </row>
-    <row r="462" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A462" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D1"/>
@@ -35243,6 +35667,1939 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C174"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A149" workbookViewId="0">
+      <selection activeCell="D168" sqref="D168"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="18.75" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1">
+        <v>1</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1871</v>
+      </c>
+      <c r="C1" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1872</v>
+      </c>
+      <c r="C2" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>1873</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>1874</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>1875</v>
+      </c>
+      <c r="C5" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>6</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>1867</v>
+      </c>
+      <c r="C6" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>7</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>1866</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>8</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>1868</v>
+      </c>
+      <c r="C8" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>9</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>1869</v>
+      </c>
+      <c r="C9" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>10</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>1870</v>
+      </c>
+      <c r="C10" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>11</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>1876</v>
+      </c>
+      <c r="C11" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>12</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>1877</v>
+      </c>
+      <c r="C12" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>13</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>1878</v>
+      </c>
+      <c r="C13" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>14</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>1879</v>
+      </c>
+      <c r="C14" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>15</v>
+      </c>
+      <c r="B15" s="11" t="s">
+        <v>1880</v>
+      </c>
+      <c r="C15" s="2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>16</v>
+      </c>
+      <c r="B16" s="11" t="s">
+        <v>1881</v>
+      </c>
+      <c r="C16" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>17</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>1882</v>
+      </c>
+      <c r="C17" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>18</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>1883</v>
+      </c>
+      <c r="C18" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>19</v>
+      </c>
+      <c r="B19" s="11" t="s">
+        <v>1884</v>
+      </c>
+      <c r="C19" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>20</v>
+      </c>
+      <c r="B20" s="11" t="s">
+        <v>1885</v>
+      </c>
+      <c r="C20" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>21</v>
+      </c>
+      <c r="B21" s="10" t="s">
+        <v>1886</v>
+      </c>
+      <c r="C21" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>22</v>
+      </c>
+      <c r="B22" s="10" t="s">
+        <v>1887</v>
+      </c>
+      <c r="C22" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>23</v>
+      </c>
+      <c r="B23" s="10" t="s">
+        <v>1888</v>
+      </c>
+      <c r="C23" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>24</v>
+      </c>
+      <c r="B24" s="10" t="s">
+        <v>1889</v>
+      </c>
+      <c r="C24" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>25</v>
+      </c>
+      <c r="B25" s="10" t="s">
+        <v>1890</v>
+      </c>
+      <c r="C25" s="2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>26</v>
+      </c>
+      <c r="B26" s="10" t="s">
+        <v>1891</v>
+      </c>
+      <c r="C26" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>27</v>
+      </c>
+      <c r="B27" s="10" t="s">
+        <v>1892</v>
+      </c>
+      <c r="C27" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>28</v>
+      </c>
+      <c r="B28" s="10" t="s">
+        <v>1893</v>
+      </c>
+      <c r="C28" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>29</v>
+      </c>
+      <c r="B29" s="10" t="s">
+        <v>1894</v>
+      </c>
+      <c r="C29" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>30</v>
+      </c>
+      <c r="B30" s="10" t="s">
+        <v>1895</v>
+      </c>
+      <c r="C30" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>31</v>
+      </c>
+      <c r="B31" s="10" t="s">
+        <v>1896</v>
+      </c>
+      <c r="C31" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>32</v>
+      </c>
+      <c r="B32" s="10" t="s">
+        <v>1897</v>
+      </c>
+      <c r="C32" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>33</v>
+      </c>
+      <c r="B33" s="10" t="s">
+        <v>1898</v>
+      </c>
+      <c r="C33" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>34</v>
+      </c>
+      <c r="B34" s="10" t="s">
+        <v>1899</v>
+      </c>
+      <c r="C34" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>35</v>
+      </c>
+      <c r="B35" s="10" t="s">
+        <v>1900</v>
+      </c>
+      <c r="C35" s="2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>36</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>1901</v>
+      </c>
+      <c r="C36" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>37</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>1902</v>
+      </c>
+      <c r="C37" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>38</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>1903</v>
+      </c>
+      <c r="C38" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>39</v>
+      </c>
+      <c r="B39" s="1" t="s">
+        <v>1904</v>
+      </c>
+      <c r="C39" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>40</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>1905</v>
+      </c>
+      <c r="C40" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>41</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>1906</v>
+      </c>
+      <c r="C41" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>42</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>1907</v>
+      </c>
+      <c r="C42" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>43</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>1908</v>
+      </c>
+      <c r="C43" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>44</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>1909</v>
+      </c>
+      <c r="C44" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>45</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>1910</v>
+      </c>
+      <c r="C45" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>46</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>1911</v>
+      </c>
+      <c r="C46" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>47</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>1912</v>
+      </c>
+      <c r="C47" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>48</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>1913</v>
+      </c>
+      <c r="C48" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>49</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>1914</v>
+      </c>
+      <c r="C49" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>50</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>1915</v>
+      </c>
+      <c r="C50" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="1">
+        <v>51</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>1916</v>
+      </c>
+      <c r="C51" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>52</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>1917</v>
+      </c>
+      <c r="C52" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="1">
+        <v>53</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>1918</v>
+      </c>
+      <c r="C53" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="1">
+        <v>54</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>1919</v>
+      </c>
+      <c r="C54" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="1">
+        <v>55</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>1920</v>
+      </c>
+      <c r="C55" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="1">
+        <v>56</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>1921</v>
+      </c>
+      <c r="C56" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="1">
+        <v>57</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>1922</v>
+      </c>
+      <c r="C57" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="1">
+        <v>58</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>1923</v>
+      </c>
+      <c r="C58" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="1">
+        <v>59</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>2040</v>
+      </c>
+      <c r="C59" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="1">
+        <v>60</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>2041</v>
+      </c>
+      <c r="C60" s="2">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="1">
+        <v>61</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>2042</v>
+      </c>
+      <c r="C61" s="2">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="1">
+        <v>62</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>2043</v>
+      </c>
+      <c r="C62" s="2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="1">
+        <v>63</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>2044</v>
+      </c>
+      <c r="C63" s="2">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="1">
+        <v>64</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>2045</v>
+      </c>
+      <c r="C64" s="2">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="1">
+        <v>65</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>2046</v>
+      </c>
+      <c r="C65" s="2">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="1">
+        <v>66</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>2047</v>
+      </c>
+      <c r="C66" s="2">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="1">
+        <v>67</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>2048</v>
+      </c>
+      <c r="C67" s="2">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="1">
+        <v>68</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>2049</v>
+      </c>
+      <c r="C68" s="2">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="1">
+        <v>69</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>2050</v>
+      </c>
+      <c r="C69" s="2">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="1">
+        <v>70</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>2051</v>
+      </c>
+      <c r="C70" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="1">
+        <v>71</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>2052</v>
+      </c>
+      <c r="C71" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="1">
+        <v>72</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>2053</v>
+      </c>
+      <c r="C72" s="2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="1">
+        <v>73</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>2054</v>
+      </c>
+      <c r="C73" s="2">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="1">
+        <v>74</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>2055</v>
+      </c>
+      <c r="C74" s="2">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="1">
+        <v>75</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>2056</v>
+      </c>
+      <c r="C75" s="2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="1">
+        <v>76</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>2057</v>
+      </c>
+      <c r="C76" s="2">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="1">
+        <v>77</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>2058</v>
+      </c>
+      <c r="C77" s="2">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="1">
+        <v>78</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>2059</v>
+      </c>
+      <c r="C78" s="2">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="1">
+        <v>79</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>2060</v>
+      </c>
+      <c r="C79" s="2">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" s="1">
+        <v>80</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>2061</v>
+      </c>
+      <c r="C80" s="2">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A81" s="1">
+        <v>81</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>2062</v>
+      </c>
+      <c r="C81" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A82" s="1">
+        <v>82</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>2063</v>
+      </c>
+      <c r="C82" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A83" s="1">
+        <v>83</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>2064</v>
+      </c>
+      <c r="C83" s="2">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A84" s="1">
+        <v>84</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>2065</v>
+      </c>
+      <c r="C84" s="2">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A85" s="1">
+        <v>85</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>2066</v>
+      </c>
+      <c r="C85" s="2">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A86" s="1">
+        <v>86</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>2067</v>
+      </c>
+      <c r="C86" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A87" s="1">
+        <v>87</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>2068</v>
+      </c>
+      <c r="C87" s="2">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A88" s="1">
+        <v>88</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>2069</v>
+      </c>
+      <c r="C88" s="2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="89" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A89" s="1">
+        <v>89</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>2070</v>
+      </c>
+      <c r="C89" s="2">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="90" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A90" s="1">
+        <v>90</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>2071</v>
+      </c>
+      <c r="C90" s="2">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A91" s="1">
+        <v>91</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>2072</v>
+      </c>
+      <c r="C91" s="2">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A92" s="1">
+        <v>92</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>2073</v>
+      </c>
+      <c r="C92" s="2">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A93" s="1">
+        <v>93</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>2074</v>
+      </c>
+      <c r="C93" s="2">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A94" s="1">
+        <v>94</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>2075</v>
+      </c>
+      <c r="C94" s="2">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A95" s="1">
+        <v>95</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>2076</v>
+      </c>
+      <c r="C95" s="2">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A96" s="1">
+        <v>96</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>2077</v>
+      </c>
+      <c r="C96" s="2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A97" s="1">
+        <v>97</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>2078</v>
+      </c>
+      <c r="C97" s="2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A98" s="1">
+        <v>98</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>2079</v>
+      </c>
+      <c r="C98" s="2">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A99" s="1">
+        <v>99</v>
+      </c>
+      <c r="B99" s="13" t="s">
+        <v>2080</v>
+      </c>
+      <c r="C99" s="2">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A100" s="1">
+        <v>100</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>2081</v>
+      </c>
+      <c r="C100" s="2">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A101" s="1">
+        <v>101</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>2082</v>
+      </c>
+      <c r="C101" s="2">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A102" s="1">
+        <v>102</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>2083</v>
+      </c>
+      <c r="C102" s="2">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A103" s="1">
+        <v>103</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>2084</v>
+      </c>
+      <c r="C103" s="2">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A104" s="1">
+        <v>104</v>
+      </c>
+      <c r="B104" s="1" t="s">
+        <v>2085</v>
+      </c>
+      <c r="C104" s="2">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A105" s="1">
+        <v>105</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>2086</v>
+      </c>
+      <c r="C105" s="2">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A106" s="1">
+        <v>106</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>2087</v>
+      </c>
+      <c r="C106" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A107" s="1">
+        <v>107</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>2088</v>
+      </c>
+      <c r="C107" s="2">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A108" s="1">
+        <v>108</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>2089</v>
+      </c>
+      <c r="C108" s="2">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="109" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A109" s="1">
+        <v>109</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>2090</v>
+      </c>
+      <c r="C109" s="2">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A110" s="1">
+        <v>110</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>2091</v>
+      </c>
+      <c r="C110" s="2">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A111" s="1">
+        <v>111</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>2092</v>
+      </c>
+      <c r="C111" s="2">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A112" s="1">
+        <v>112</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>2093</v>
+      </c>
+      <c r="C112" s="2">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A113" s="1">
+        <v>113</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>2094</v>
+      </c>
+      <c r="C113" s="2">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A114" s="1">
+        <v>114</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>2095</v>
+      </c>
+      <c r="C114" s="2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A115" s="1">
+        <v>115</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>2096</v>
+      </c>
+      <c r="C115" s="2">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A116" s="1">
+        <v>116</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>2097</v>
+      </c>
+      <c r="C116" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A117" s="1">
+        <v>117</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>2098</v>
+      </c>
+      <c r="C117" s="2">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A118" s="1">
+        <v>118</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>2099</v>
+      </c>
+      <c r="C118" s="2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A119" s="1">
+        <v>119</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>2100</v>
+      </c>
+      <c r="C119" s="2">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A120" s="1">
+        <v>120</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>2101</v>
+      </c>
+      <c r="C120" s="2">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A121" s="1">
+        <v>121</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>2102</v>
+      </c>
+      <c r="C121" s="2">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A122" s="1">
+        <v>122</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>2103</v>
+      </c>
+      <c r="C122" s="2">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A123" s="1">
+        <v>123</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>2104</v>
+      </c>
+      <c r="C123" s="2">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A124" s="1">
+        <v>124</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>2105</v>
+      </c>
+      <c r="C124" s="2">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A125" s="1">
+        <v>125</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>2106</v>
+      </c>
+      <c r="C125" s="2">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A126" s="1">
+        <v>126</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>2107</v>
+      </c>
+      <c r="C126" s="2">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A127" s="1">
+        <v>127</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>2108</v>
+      </c>
+      <c r="C127" s="2">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A128" s="1">
+        <v>128</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>2109</v>
+      </c>
+      <c r="C128" s="2">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A129" s="1">
+        <v>129</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>2110</v>
+      </c>
+      <c r="C129" s="2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A130" s="1">
+        <v>130</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>2111</v>
+      </c>
+      <c r="C130" s="2">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A131" s="1">
+        <v>131</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>2112</v>
+      </c>
+      <c r="C131" s="2">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A132" s="1">
+        <v>132</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>2113</v>
+      </c>
+      <c r="C132" s="2">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A133" s="1">
+        <v>133</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>2114</v>
+      </c>
+      <c r="C133" s="2">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A134" s="1">
+        <v>134</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>2115</v>
+      </c>
+      <c r="C134" s="2">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A135" s="1">
+        <v>135</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>2116</v>
+      </c>
+      <c r="C135" s="2">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A136" s="1">
+        <v>136</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>2117</v>
+      </c>
+      <c r="C136" s="2">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A137" s="1">
+        <v>137</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>2118</v>
+      </c>
+      <c r="C137" s="2">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A138" s="1">
+        <v>138</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>2119</v>
+      </c>
+      <c r="C138" s="2">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A139" s="1">
+        <v>139</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>2120</v>
+      </c>
+      <c r="C139" s="2">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A140" s="1">
+        <v>140</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>2121</v>
+      </c>
+      <c r="C140" s="2">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A141" s="1">
+        <v>141</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>2122</v>
+      </c>
+      <c r="C141" s="2">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A142" s="1">
+        <v>142</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>2123</v>
+      </c>
+      <c r="C142" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A143" s="1">
+        <v>143</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>2124</v>
+      </c>
+      <c r="C143" s="2">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A144" s="1">
+        <v>144</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>2125</v>
+      </c>
+      <c r="C144" s="2">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A145" s="1">
+        <v>145</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>2126</v>
+      </c>
+      <c r="C145" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A146" s="1">
+        <v>146</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>2127</v>
+      </c>
+      <c r="C146" s="2">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A147" s="1">
+        <v>147</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>2128</v>
+      </c>
+      <c r="C147" s="2">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A148" s="1">
+        <v>148</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>2129</v>
+      </c>
+      <c r="C148" s="2">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A149" s="1">
+        <v>149</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>2130</v>
+      </c>
+      <c r="C149" s="2">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A150" s="1">
+        <v>150</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>2131</v>
+      </c>
+      <c r="C150" s="2">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A151" s="1">
+        <v>151</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>2132</v>
+      </c>
+      <c r="C151" s="2">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A152" s="1">
+        <v>152</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>2133</v>
+      </c>
+      <c r="C152" s="2">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A153" s="1">
+        <v>153</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>2134</v>
+      </c>
+      <c r="C153" s="2">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A154" s="1">
+        <v>154</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>2135</v>
+      </c>
+      <c r="C154" s="2">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A155" s="1">
+        <v>155</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>2136</v>
+      </c>
+      <c r="C155" s="2">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A156" s="1">
+        <v>156</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>2137</v>
+      </c>
+      <c r="C156" s="2">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A157" s="1">
+        <v>157</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>2138</v>
+      </c>
+      <c r="C157" s="2">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="158" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A158" s="1">
+        <v>158</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>2139</v>
+      </c>
+      <c r="C158" s="2">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A159" s="1">
+        <v>159</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>2140</v>
+      </c>
+      <c r="C159" s="2">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A160" s="1">
+        <v>160</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>2141</v>
+      </c>
+      <c r="C160" s="2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A161" s="1">
+        <v>161</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>2142</v>
+      </c>
+      <c r="C161" s="2">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A162" s="1">
+        <v>162</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>2143</v>
+      </c>
+      <c r="C162" s="2">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A163" s="1">
+        <v>163</v>
+      </c>
+      <c r="B163" s="1" t="s">
+        <v>2144</v>
+      </c>
+      <c r="C163" s="2">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A164" s="1">
+        <v>164</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>2145</v>
+      </c>
+      <c r="C164" s="2">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A165" s="1">
+        <v>165</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>2146</v>
+      </c>
+      <c r="C165" s="2">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A166" s="1">
+        <v>166</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>2147</v>
+      </c>
+      <c r="C166" s="2">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A167" s="1">
+        <v>167</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>2148</v>
+      </c>
+      <c r="C167" s="2">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A168" s="1">
+        <v>168</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>2149</v>
+      </c>
+      <c r="C168" s="2">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A169" s="1">
+        <v>169</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>2150</v>
+      </c>
+      <c r="C169" s="2">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A170" s="1">
+        <v>170</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>2151</v>
+      </c>
+      <c r="C170" s="2">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A171" s="1">
+        <v>171</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>2152</v>
+      </c>
+      <c r="C171" s="2">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A172" s="1">
+        <v>172</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>2153</v>
+      </c>
+      <c r="C172" s="2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A173" s="1">
+        <v>173</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>2154</v>
+      </c>
+      <c r="C173" s="2">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A174" s="1">
+        <v>174</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>2155</v>
+      </c>
+      <c r="C174" s="2">
+        <v>129</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G50"/>
   <sheetViews>
